--- a/Data/CaseStudy2CompSet No Salary.xlsx
+++ b/Data/CaseStudy2CompSet No Salary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bivin/Desktop/OLD COMPUTER ARCHIVES/KadAfrica/MSDS/DDS/MSDS 6306 Summer 2019/Case Study 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julia\Documents\SMU\DataSci\Unit 14 and 15 Case Study 2\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945C67FF-C5A2-044B-B344-67EA190AFEEA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60503A49-6953-46D9-B964-80303B24CEF0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="760" windowWidth="27240" windowHeight="16040" xr2:uid="{CCB4E516-3998-C84C-B136-BC688DACF968}"/>
+    <workbookView xWindow="348" yWindow="348" windowWidth="12168" windowHeight="6600" xr2:uid="{CCB4E516-3998-C84C-B136-BC688DACF968}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -565,12 +565,12 @@
   <dimension ref="A1:AI301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ1" sqref="AJ1:AJ1048576"/>
+      <selection activeCell="AJ1" sqref="AJ1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -677,7 +677,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>871</v>
       </c>
@@ -784,7 +784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>872</v>
       </c>
@@ -891,7 +891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>873</v>
       </c>
@@ -998,7 +998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>874</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>875</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>876</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>877</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>878</v>
       </c>
@@ -1533,7 +1533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>879</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>880</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>881</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>882</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>883</v>
       </c>
@@ -2068,7 +2068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>884</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>885</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>886</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>887</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>888</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>889</v>
       </c>
@@ -2710,7 +2710,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>890</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>891</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>892</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>893</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>894</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>895</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>896</v>
       </c>
@@ -3459,7 +3459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>897</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>898</v>
       </c>
@@ -3673,7 +3673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>899</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>900</v>
       </c>
@@ -3887,7 +3887,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>901</v>
       </c>
@@ -3994,7 +3994,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>902</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>903</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>904</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>905</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>906</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>907</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>908</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>909</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>910</v>
       </c>
@@ -4957,7 +4957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>911</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>912</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>913</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>914</v>
       </c>
@@ -5385,7 +5385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>915</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>916</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>917</v>
       </c>
@@ -5706,7 +5706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>918</v>
       </c>
@@ -5813,7 +5813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>919</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>920</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>921</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>922</v>
       </c>
@@ -6241,7 +6241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>923</v>
       </c>
@@ -6348,7 +6348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>924</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>925</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="57" spans="1:35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>926</v>
       </c>
@@ -6669,7 +6669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>927</v>
       </c>
@@ -6776,7 +6776,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>928</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>929</v>
       </c>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>930</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>931</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>932</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>933</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>934</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>935</v>
       </c>
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>936</v>
       </c>
@@ -7739,7 +7739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>937</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>938</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>939</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>940</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>941</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>942</v>
       </c>
@@ -8381,7 +8381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>943</v>
       </c>
@@ -8488,7 +8488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>944</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>945</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>946</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>947</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>948</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80" spans="1:35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>949</v>
       </c>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>950</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>951</v>
       </c>
@@ -9344,7 +9344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>952</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>953</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>954</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:35">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>955</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:35">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>956</v>
       </c>
@@ -9879,7 +9879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:35">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>957</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:35">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>958</v>
       </c>
@@ -10093,7 +10093,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:35">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>959</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:35">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>960</v>
       </c>
@@ -10307,7 +10307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:35">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>961</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:35">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>962</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:35">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>963</v>
       </c>
@@ -10628,7 +10628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:35">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>964</v>
       </c>
@@ -10735,7 +10735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:35">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>965</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:35">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>966</v>
       </c>
@@ -10949,7 +10949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:35">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>967</v>
       </c>
@@ -11056,7 +11056,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:35">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>968</v>
       </c>
@@ -11163,7 +11163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:35">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>969</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:35">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>970</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:35">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>971</v>
       </c>
@@ -11484,7 +11484,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="103" spans="1:35">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>972</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:35">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>973</v>
       </c>
@@ -11698,7 +11698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:35">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>974</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:35">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>975</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:35">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>976</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:35">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>977</v>
       </c>
@@ -12126,7 +12126,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:35">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>978</v>
       </c>
@@ -12233,7 +12233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:35">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>979</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:35">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>980</v>
       </c>
@@ -12447,7 +12447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:35">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>981</v>
       </c>
@@ -12554,7 +12554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:35">
+    <row r="113" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>982</v>
       </c>
@@ -12661,7 +12661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:35">
+    <row r="114" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>983</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:35">
+    <row r="115" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>984</v>
       </c>
@@ -12875,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:35">
+    <row r="116" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>985</v>
       </c>
@@ -12982,7 +12982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:35">
+    <row r="117" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>986</v>
       </c>
@@ -13089,7 +13089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:35">
+    <row r="118" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>987</v>
       </c>
@@ -13196,7 +13196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:35">
+    <row r="119" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>988</v>
       </c>
@@ -13303,7 +13303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:35">
+    <row r="120" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>989</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:35">
+    <row r="121" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>990</v>
       </c>
@@ -13517,7 +13517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:35">
+    <row r="122" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>991</v>
       </c>
@@ -13624,7 +13624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:35">
+    <row r="123" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>992</v>
       </c>
@@ -13731,7 +13731,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:35">
+    <row r="124" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>993</v>
       </c>
@@ -13838,7 +13838,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:35">
+    <row r="125" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>994</v>
       </c>
@@ -13945,7 +13945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:35">
+    <row r="126" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>995</v>
       </c>
@@ -14052,7 +14052,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:35">
+    <row r="127" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>996</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:35">
+    <row r="128" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>997</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:35">
+    <row r="129" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>998</v>
       </c>
@@ -14373,7 +14373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="130" spans="1:35">
+    <row r="130" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>999</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:35">
+    <row r="131" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1000</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:35">
+    <row r="132" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1001</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:35">
+    <row r="133" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1002</v>
       </c>
@@ -14801,7 +14801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:35">
+    <row r="134" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1003</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:35">
+    <row r="135" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1004</v>
       </c>
@@ -15015,7 +15015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:35">
+    <row r="136" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1005</v>
       </c>
@@ -15122,7 +15122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:35">
+    <row r="137" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1006</v>
       </c>
@@ -15229,7 +15229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:35">
+    <row r="138" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1007</v>
       </c>
@@ -15336,7 +15336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:35">
+    <row r="139" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1008</v>
       </c>
@@ -15443,7 +15443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:35">
+    <row r="140" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1009</v>
       </c>
@@ -15550,7 +15550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="141" spans="1:35">
+    <row r="141" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1010</v>
       </c>
@@ -15657,7 +15657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:35">
+    <row r="142" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1011</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:35">
+    <row r="143" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1012</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:35">
+    <row r="144" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1013</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:35">
+    <row r="145" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1014</v>
       </c>
@@ -16085,7 +16085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:35">
+    <row r="146" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1015</v>
       </c>
@@ -16192,7 +16192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:35">
+    <row r="147" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1016</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:35">
+    <row r="148" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1017</v>
       </c>
@@ -16406,7 +16406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:35">
+    <row r="149" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1018</v>
       </c>
@@ -16513,7 +16513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:35">
+    <row r="150" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1019</v>
       </c>
@@ -16620,7 +16620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:35">
+    <row r="151" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1020</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:35">
+    <row r="152" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1021</v>
       </c>
@@ -16834,7 +16834,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="153" spans="1:35">
+    <row r="153" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1022</v>
       </c>
@@ -16941,7 +16941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:35">
+    <row r="154" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1023</v>
       </c>
@@ -17048,7 +17048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="155" spans="1:35">
+    <row r="155" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1024</v>
       </c>
@@ -17155,7 +17155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="156" spans="1:35">
+    <row r="156" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1025</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="157" spans="1:35">
+    <row r="157" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1026</v>
       </c>
@@ -17369,7 +17369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:35">
+    <row r="158" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1027</v>
       </c>
@@ -17476,7 +17476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:35">
+    <row r="159" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1028</v>
       </c>
@@ -17583,7 +17583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:35">
+    <row r="160" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1029</v>
       </c>
@@ -17690,7 +17690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:35">
+    <row r="161" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1030</v>
       </c>
@@ -17797,7 +17797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:35">
+    <row r="162" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1031</v>
       </c>
@@ -17904,7 +17904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="163" spans="1:35">
+    <row r="163" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1032</v>
       </c>
@@ -18011,7 +18011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:35">
+    <row r="164" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1033</v>
       </c>
@@ -18118,7 +18118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:35">
+    <row r="165" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1034</v>
       </c>
@@ -18225,7 +18225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:35">
+    <row r="166" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1035</v>
       </c>
@@ -18332,7 +18332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="167" spans="1:35">
+    <row r="167" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1036</v>
       </c>
@@ -18439,7 +18439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:35">
+    <row r="168" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1037</v>
       </c>
@@ -18546,7 +18546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:35">
+    <row r="169" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1038</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:35">
+    <row r="170" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1039</v>
       </c>
@@ -18760,7 +18760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:35">
+    <row r="171" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1040</v>
       </c>
@@ -18867,7 +18867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:35">
+    <row r="172" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1041</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:35">
+    <row r="173" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1042</v>
       </c>
@@ -19081,7 +19081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:35">
+    <row r="174" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1043</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:35">
+    <row r="175" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1044</v>
       </c>
@@ -19295,7 +19295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:35">
+    <row r="176" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1045</v>
       </c>
@@ -19402,7 +19402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:35">
+    <row r="177" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1046</v>
       </c>
@@ -19509,7 +19509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:35">
+    <row r="178" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1047</v>
       </c>
@@ -19616,7 +19616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:35">
+    <row r="179" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1048</v>
       </c>
@@ -19723,7 +19723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:35">
+    <row r="180" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1049</v>
       </c>
@@ -19830,7 +19830,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="181" spans="1:35">
+    <row r="181" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1050</v>
       </c>
@@ -19937,7 +19937,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:35">
+    <row r="182" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1051</v>
       </c>
@@ -20044,7 +20044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="183" spans="1:35">
+    <row r="183" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1052</v>
       </c>
@@ -20151,7 +20151,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:35">
+    <row r="184" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1053</v>
       </c>
@@ -20258,7 +20258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:35">
+    <row r="185" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1054</v>
       </c>
@@ -20365,7 +20365,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:35">
+    <row r="186" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1055</v>
       </c>
@@ -20472,7 +20472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="187" spans="1:35">
+    <row r="187" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1056</v>
       </c>
@@ -20579,7 +20579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="188" spans="1:35">
+    <row r="188" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1057</v>
       </c>
@@ -20686,7 +20686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:35">
+    <row r="189" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1058</v>
       </c>
@@ -20793,7 +20793,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:35">
+    <row r="190" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1059</v>
       </c>
@@ -20900,7 +20900,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="191" spans="1:35">
+    <row r="191" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1060</v>
       </c>
@@ -21007,7 +21007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="192" spans="1:35">
+    <row r="192" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1061</v>
       </c>
@@ -21114,7 +21114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:35">
+    <row r="193" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1062</v>
       </c>
@@ -21221,7 +21221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="194" spans="1:35">
+    <row r="194" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1063</v>
       </c>
@@ -21328,7 +21328,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="195" spans="1:35">
+    <row r="195" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1064</v>
       </c>
@@ -21435,7 +21435,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:35">
+    <row r="196" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1065</v>
       </c>
@@ -21542,7 +21542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:35">
+    <row r="197" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1066</v>
       </c>
@@ -21649,7 +21649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:35">
+    <row r="198" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1067</v>
       </c>
@@ -21756,7 +21756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="199" spans="1:35">
+    <row r="199" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1068</v>
       </c>
@@ -21863,7 +21863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:35">
+    <row r="200" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1069</v>
       </c>
@@ -21970,7 +21970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:35">
+    <row r="201" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1070</v>
       </c>
@@ -22077,7 +22077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="202" spans="1:35">
+    <row r="202" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1071</v>
       </c>
@@ -22184,7 +22184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:35">
+    <row r="203" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1072</v>
       </c>
@@ -22291,7 +22291,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:35">
+    <row r="204" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1073</v>
       </c>
@@ -22398,7 +22398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" spans="1:35">
+    <row r="205" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1074</v>
       </c>
@@ -22505,7 +22505,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:35">
+    <row r="206" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1075</v>
       </c>
@@ -22612,7 +22612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:35">
+    <row r="207" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1076</v>
       </c>
@@ -22719,7 +22719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:35">
+    <row r="208" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1077</v>
       </c>
@@ -22826,7 +22826,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:35">
+    <row r="209" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1078</v>
       </c>
@@ -22933,7 +22933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="1:35">
+    <row r="210" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1079</v>
       </c>
@@ -23040,7 +23040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="211" spans="1:35">
+    <row r="211" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1080</v>
       </c>
@@ -23147,7 +23147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:35">
+    <row r="212" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1081</v>
       </c>
@@ -23254,7 +23254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:35">
+    <row r="213" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1082</v>
       </c>
@@ -23361,7 +23361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:35">
+    <row r="214" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1083</v>
       </c>
@@ -23468,7 +23468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:35">
+    <row r="215" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1084</v>
       </c>
@@ -23575,7 +23575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:35">
+    <row r="216" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1085</v>
       </c>
@@ -23682,7 +23682,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:35">
+    <row r="217" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1086</v>
       </c>
@@ -23789,7 +23789,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="218" spans="1:35">
+    <row r="218" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1087</v>
       </c>
@@ -23896,7 +23896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="219" spans="1:35">
+    <row r="219" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1088</v>
       </c>
@@ -24003,7 +24003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:35">
+    <row r="220" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1089</v>
       </c>
@@ -24110,7 +24110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:35">
+    <row r="221" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1090</v>
       </c>
@@ -24217,7 +24217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:35">
+    <row r="222" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1091</v>
       </c>
@@ -24324,7 +24324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="223" spans="1:35">
+    <row r="223" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1092</v>
       </c>
@@ -24431,7 +24431,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="224" spans="1:35">
+    <row r="224" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1093</v>
       </c>
@@ -24538,7 +24538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="225" spans="1:35">
+    <row r="225" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1094</v>
       </c>
@@ -24645,7 +24645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="226" spans="1:35">
+    <row r="226" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1095</v>
       </c>
@@ -24752,7 +24752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:35">
+    <row r="227" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1096</v>
       </c>
@@ -24859,7 +24859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="228" spans="1:35">
+    <row r="228" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1097</v>
       </c>
@@ -24966,7 +24966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:35">
+    <row r="229" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1098</v>
       </c>
@@ -25073,7 +25073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="230" spans="1:35">
+    <row r="230" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1099</v>
       </c>
@@ -25180,7 +25180,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="231" spans="1:35">
+    <row r="231" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1100</v>
       </c>
@@ -25287,7 +25287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:35">
+    <row r="232" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1101</v>
       </c>
@@ -25394,7 +25394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="233" spans="1:35">
+    <row r="233" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1102</v>
       </c>
@@ -25501,7 +25501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="234" spans="1:35">
+    <row r="234" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1103</v>
       </c>
@@ -25608,7 +25608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:35">
+    <row r="235" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1104</v>
       </c>
@@ -25715,7 +25715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:35">
+    <row r="236" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1105</v>
       </c>
@@ -25822,7 +25822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:35">
+    <row r="237" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1106</v>
       </c>
@@ -25929,7 +25929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:35">
+    <row r="238" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1107</v>
       </c>
@@ -26036,7 +26036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:35">
+    <row r="239" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1108</v>
       </c>
@@ -26143,7 +26143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="240" spans="1:35">
+    <row r="240" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1109</v>
       </c>
@@ -26250,7 +26250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:35">
+    <row r="241" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1110</v>
       </c>
@@ -26357,7 +26357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:35">
+    <row r="242" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1111</v>
       </c>
@@ -26464,7 +26464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="243" spans="1:35">
+    <row r="243" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1112</v>
       </c>
@@ -26571,7 +26571,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:35">
+    <row r="244" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1113</v>
       </c>
@@ -26678,7 +26678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="245" spans="1:35">
+    <row r="245" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1114</v>
       </c>
@@ -26785,7 +26785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="1:35">
+    <row r="246" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1115</v>
       </c>
@@ -26892,7 +26892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="247" spans="1:35">
+    <row r="247" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1116</v>
       </c>
@@ -26999,7 +26999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:35">
+    <row r="248" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1117</v>
       </c>
@@ -27106,7 +27106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:35">
+    <row r="249" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1118</v>
       </c>
@@ -27213,7 +27213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:35">
+    <row r="250" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1119</v>
       </c>
@@ -27320,7 +27320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:35">
+    <row r="251" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1120</v>
       </c>
@@ -27427,7 +27427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="252" spans="1:35">
+    <row r="252" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1121</v>
       </c>
@@ -27534,7 +27534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:35">
+    <row r="253" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1122</v>
       </c>
@@ -27641,7 +27641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:35">
+    <row r="254" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1123</v>
       </c>
@@ -27748,7 +27748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="255" spans="1:35">
+    <row r="255" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1124</v>
       </c>
@@ -27855,7 +27855,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:35">
+    <row r="256" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1125</v>
       </c>
@@ -27962,7 +27962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:35">
+    <row r="257" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1126</v>
       </c>
@@ -28069,7 +28069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:35">
+    <row r="258" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1127</v>
       </c>
@@ -28176,7 +28176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:35">
+    <row r="259" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1128</v>
       </c>
@@ -28283,7 +28283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:35">
+    <row r="260" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1129</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:35">
+    <row r="261" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1130</v>
       </c>
@@ -28497,7 +28497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:35">
+    <row r="262" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1131</v>
       </c>
@@ -28604,7 +28604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="263" spans="1:35">
+    <row r="263" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1132</v>
       </c>
@@ -28711,7 +28711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="264" spans="1:35">
+    <row r="264" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1133</v>
       </c>
@@ -28818,7 +28818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:35">
+    <row r="265" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1134</v>
       </c>
@@ -28925,7 +28925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="1:35">
+    <row r="266" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1135</v>
       </c>
@@ -29032,7 +29032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:35">
+    <row r="267" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1136</v>
       </c>
@@ -29139,7 +29139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="1:35">
+    <row r="268" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1137</v>
       </c>
@@ -29246,7 +29246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="1:35">
+    <row r="269" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1138</v>
       </c>
@@ -29353,7 +29353,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:35">
+    <row r="270" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1139</v>
       </c>
@@ -29460,7 +29460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:35">
+    <row r="271" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1140</v>
       </c>
@@ -29567,7 +29567,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="272" spans="1:35">
+    <row r="272" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1141</v>
       </c>
@@ -29674,7 +29674,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:35">
+    <row r="273" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1142</v>
       </c>
@@ -29781,7 +29781,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:35">
+    <row r="274" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1143</v>
       </c>
@@ -29888,7 +29888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:35">
+    <row r="275" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1144</v>
       </c>
@@ -29995,7 +29995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:35">
+    <row r="276" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1145</v>
       </c>
@@ -30102,7 +30102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:35">
+    <row r="277" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1146</v>
       </c>
@@ -30209,7 +30209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:35">
+    <row r="278" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1147</v>
       </c>
@@ -30316,7 +30316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:35">
+    <row r="279" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1148</v>
       </c>
@@ -30423,7 +30423,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:35">
+    <row r="280" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1149</v>
       </c>
@@ -30530,7 +30530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="281" spans="1:35">
+    <row r="281" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1150</v>
       </c>
@@ -30637,7 +30637,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="282" spans="1:35">
+    <row r="282" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1151</v>
       </c>
@@ -30744,7 +30744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="283" spans="1:35">
+    <row r="283" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1152</v>
       </c>
@@ -30851,7 +30851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:35">
+    <row r="284" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1153</v>
       </c>
@@ -30958,7 +30958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="285" spans="1:35">
+    <row r="285" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1154</v>
       </c>
@@ -31065,7 +31065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:35">
+    <row r="286" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1155</v>
       </c>
@@ -31172,7 +31172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="287" spans="1:35">
+    <row r="287" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1156</v>
       </c>
@@ -31279,7 +31279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:35">
+    <row r="288" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1157</v>
       </c>
@@ -31386,7 +31386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:35">
+    <row r="289" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1158</v>
       </c>
@@ -31493,7 +31493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:35">
+    <row r="290" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1159</v>
       </c>
@@ -31600,7 +31600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:35">
+    <row r="291" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1160</v>
       </c>
@@ -31707,7 +31707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:35">
+    <row r="292" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1161</v>
       </c>
@@ -31814,7 +31814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:35">
+    <row r="293" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1162</v>
       </c>
@@ -31921,7 +31921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:35">
+    <row r="294" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1163</v>
       </c>
@@ -32028,7 +32028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:35">
+    <row r="295" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1164</v>
       </c>
@@ -32135,7 +32135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:35">
+    <row r="296" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1165</v>
       </c>
@@ -32242,7 +32242,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:35">
+    <row r="297" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1166</v>
       </c>
@@ -32349,7 +32349,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="298" spans="1:35">
+    <row r="298" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1167</v>
       </c>
@@ -32456,7 +32456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:35">
+    <row r="299" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1168</v>
       </c>
@@ -32563,7 +32563,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:35">
+    <row r="300" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1169</v>
       </c>
@@ -32670,7 +32670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="301" spans="1:35">
+    <row r="301" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1170</v>
       </c>
